--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3367705.562747827</v>
+        <v>3363447.29709459</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>91.57111426472768</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>55.10327839471261</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459284</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050974</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370744</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353365</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356351</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>204.2681809517896</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894002</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0855884655385</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.6189682767592</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5599747503331</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>37.63268391789821</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.11811405835538</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>61.59020550332201</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>319.8014696398031</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>115.1947211504366</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>79.286047385091</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>62.26884459323466</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>127.6065435523132</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>17.95257707283386</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>7.408064079031393</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.55293486399925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444151</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>20.89983420622125</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>71.56327578339756</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>81.47435506334548</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986279</v>
+        <v>140.307475200959</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012177</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>30.87238256911866</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.79136808967741</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.26272630934047</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>6.43453821042729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562.3066550690512</v>
+        <v>1287.166727508411</v>
       </c>
       <c r="C2" t="n">
-        <v>562.3066550690512</v>
+        <v>918.2042105679989</v>
       </c>
       <c r="D2" t="n">
-        <v>562.3066550690512</v>
+        <v>918.2042105679989</v>
       </c>
       <c r="E2" t="n">
-        <v>562.3066550690512</v>
+        <v>532.4159579697546</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>525.4704572205511</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>108.3607967059892</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>108.3607967059892</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512378</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>319.3563181321741</v>
+        <v>151.950669111822</v>
       </c>
       <c r="L2" t="n">
-        <v>868.785652738456</v>
+        <v>701.3800037181045</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054243</v>
+        <v>1329.332547639727</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094876</v>
+        <v>1952.814022680361</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.72675629197</v>
+        <v>2494.726756291969</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4354,28 +4354,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2635.045976980643</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2478.332377439301</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2263.436741474556</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2009.743287919627</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>1678.680400576057</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>1325.911745305943</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>952.4459870448629</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>562.3066550690512</v>
+        <v>1287.166727508411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935058</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123788</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511275</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
-        <v>484.025514245672</v>
+        <v>484.0255142456718</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725569</v>
+        <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.037852467983</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507491</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,46 +4412,46 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524139</v>
+        <v>380.2766518524141</v>
       </c>
       <c r="L3" t="n">
-        <v>515.0151037395829</v>
+        <v>882.1470455900082</v>
       </c>
       <c r="M3" t="n">
-        <v>993.1165734874716</v>
+        <v>1241.641187275395</v>
       </c>
       <c r="N3" t="n">
-        <v>1645.290452790181</v>
+        <v>1437.313937931689</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>1984.020177892692</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2405.797066257506</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978528</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.865745213574</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.70091953961285</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F4" t="n">
         <v>52.70091953961285</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131523</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039128</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856109</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066362</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249417</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351318</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221467</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634869</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>705.2494094117187</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>479.5782799458042</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>479.5782799458042</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>342.1180895765735</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>52.70091953961285</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>52.70091953961285</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.70091953961285</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.663835044359</v>
+        <v>1203.962417599551</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.663835044359</v>
+        <v>834.9999006591394</v>
       </c>
       <c r="D5" t="n">
-        <v>896.3981364376087</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="E5" t="n">
-        <v>510.6098838393645</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.339374490333</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.276487146762</v>
+        <v>2333.470244909599</v>
       </c>
       <c r="W5" t="n">
-        <v>1679.276487146762</v>
+        <v>1980.701589639485</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.263675108481</v>
+        <v>1980.701589639485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1641.263675108481</v>
+        <v>1590.562257663673</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>346.1860297752922</v>
       </c>
       <c r="M6" t="n">
-        <v>1483.956701421406</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N6" t="n">
-        <v>2136.130580724115</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.278007952791</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="C7" t="n">
-        <v>349.3418250248841</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="D7" t="n">
-        <v>349.3418250248841</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="E7" t="n">
-        <v>349.3418250248841</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="F7" t="n">
-        <v>349.3418250248841</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="G7" t="n">
-        <v>349.3418250248841</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="H7" t="n">
-        <v>195.0871819246492</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897547</v>
@@ -4755,22 +4755,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>537.5892342743621</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>537.5892342743621</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.5892342743621</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2312.01418946569</v>
+        <v>430.9594966187353</v>
       </c>
       <c r="C8" t="n">
-        <v>1943.051672525278</v>
+        <v>430.9594966187353</v>
       </c>
       <c r="D8" t="n">
-        <v>1584.785973918528</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.997721320284</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4807,22 +4807,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4834,22 +4834,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2518.687672788282</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.995969533433</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>1933.933082189863</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>1581.164426919749</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>1207.698668658669</v>
       </c>
       <c r="Y8" t="n">
-        <v>2635.045976980643</v>
+        <v>817.5593366828571</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>807.234042887792</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>986.7313792423969</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.70091953961285</v>
+        <v>132.7878360902098</v>
       </c>
       <c r="C10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>859.2598168969112</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>859.2598168969112</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>570.1076404745909</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>570.1076404745909</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>280.6904704376302</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X10" t="n">
-        <v>52.70091953961285</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y10" t="n">
-        <v>52.70091953961285</v>
+        <v>314.4363009204495</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909563</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>482.6390612909563</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>335.7491137930459</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1024.063349920563</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>855.1271669926557</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>705.0105275803199</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>557.0974339979268</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>410.2074865000164</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>243.0113872148964</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>101.2995560570945</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>1205.711814750802</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913446</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129205</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755757</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>4101.537227310364</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000582</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168626</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.83088743627</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>94.56320294380259</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532263</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.248478625013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.466348583466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6490,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583948</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243706</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3605.285297312205</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3377.295746414188</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3114.186543342963</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3114.186543342963</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2964.069903930628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2816.156810348235</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2669.266862850324</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>2502.070763565204</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.61713821475</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3516.627587316733</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3295.835008173203</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924059</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.889214996152</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583816</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001423</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503512</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4409.748389488609</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4120.673162832807</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4120.673162832807</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3831.255992795846</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.266441897828</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3382.473862754298</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3275.130390493383</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.194207565477</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2956.077568153141</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>2808.164474570748</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.274527072837</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.571434467153</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3677.571434467153</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3456.778855323623</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3192.420589669524</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>3023.484406741617</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741617</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053499</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4507.978318053499</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>4218.903091397697</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>3964.21860319181</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>3674.801433154849</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>3446.811882256832</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>3226.019303113302</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2970.825600989578</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>2801.889418061671</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>2651.772778649336</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>2651.772778649336</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>2504.882831151425</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4434.433080760014</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>4145.357854104212</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>3890.673365898326</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>3601.256195861365</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>3373.266644963348</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>3152.474065819818</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>278.7648924768372</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>379.1481554188186</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188873027</v>
+        <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>304.5567509348491</v>
+        <v>184.7513690535338</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579965</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>89.54312379457414</v>
       </c>
       <c r="M6" t="n">
-        <v>422.1904054093537</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,28 +8455,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>2.166261194685774</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>290.7829505319953</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.155557474667594e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21.0089294658992</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.571561219435</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>73.85777223953413</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>185.0317184880955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>265.2846401830229</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>104.0840080815016</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.9597225531934</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82035778287838</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>26.93934589766886</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.5330677581697</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>66.73277020259144</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>146.5692538725968</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>210.970912116861</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>757935.3399357422</v>
+        <v>757935.3399357421</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>692174.0493866284</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>692174.0493866284</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692174.0493866287</v>
+        <v>692174.0493866286</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>726431.9397210056</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
       <c r="K2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918867</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008500845</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.037008771136646e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909054</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707324</v>
       </c>
       <c r="F4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707337</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707241</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707262</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051732</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325910.5563754544</v>
+        <v>-325910.5563754558</v>
       </c>
       <c r="C6" t="n">
-        <v>457521.4556102601</v>
+        <v>457521.4556102611</v>
       </c>
       <c r="D6" t="n">
-        <v>462427.7026187609</v>
+        <v>462427.7026187611</v>
       </c>
       <c r="E6" t="n">
-        <v>-157276.3618761937</v>
+        <v>-157623.7411305508</v>
       </c>
       <c r="F6" t="n">
-        <v>618411.9854003906</v>
+        <v>618064.606146034</v>
       </c>
       <c r="G6" t="n">
-        <v>618411.9854003907</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="H6" t="n">
-        <v>618411.9854003909</v>
+        <v>618064.606146034</v>
       </c>
       <c r="I6" t="n">
-        <v>618411.9854003913</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="J6" t="n">
-        <v>446050.9930001099</v>
+        <v>445703.6137457534</v>
       </c>
       <c r="K6" t="n">
-        <v>618411.9854003912</v>
+        <v>618064.6061460342</v>
       </c>
       <c r="L6" t="n">
-        <v>618411.9854003913</v>
+        <v>618064.606146034</v>
       </c>
       <c r="M6" t="n">
-        <v>490334.3885846772</v>
+        <v>489987.0093303202</v>
       </c>
       <c r="N6" t="n">
-        <v>618411.985400391</v>
+        <v>618064.606146034</v>
       </c>
       <c r="O6" t="n">
-        <v>618411.9854003908</v>
+        <v>618064.6061460339</v>
       </c>
       <c r="P6" t="n">
-        <v>618411.9854003913</v>
+        <v>618064.606146034</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225489</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.296260963920808e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225489</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915516159</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451604</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.744586090424229e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>315.3049314769838</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359323</v>
+        <v>64.22780824121946</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916754</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687439</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.50480425168783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
@@ -27560,7 +27560,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775208</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
-        <v>116.0520548582896</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>24.96568507533561</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>29.19228371980176</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>332.0984167605708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.7138661235819</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,10 +27791,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>61.67635237609497</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.93237202367749</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>97.45714196452936</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>87.96077371353684</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>143.097037306884</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-4.81487632578269e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -30225,7 +30225,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.780283390417846e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718788</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956754</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447366</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683751</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984515</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844679</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451694</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024179</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105517</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193691</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645649</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602329</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031693</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.349169959034</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.189133888457503</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682464</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111748</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770764</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777937</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555187</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305499</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102891</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704974</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808491</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489522</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361686</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910949</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820277</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908701</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753054</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942301</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577921</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753758</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892069</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314782</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646945</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.23614039341</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308979</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983901</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.261068943567</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780489</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776928</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472174</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026195</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139831</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>432.1946015714836</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>309.9424824173349</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>272.9327299394437</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,22 +33976,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>353.6230700590493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>194.5189324111248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.7069902137626</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347097</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649311</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>463.5468578947339</v>
+        <v>634.29549891073</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178112</v>
+        <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516103</v>
+        <v>547.3865996076844</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239640995</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011545</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937384</v>
+        <v>330.8845780937387</v>
       </c>
       <c r="L3" t="n">
-        <v>136.0994463506757</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>482.9307775231199</v>
+        <v>363.1253956418052</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>197.6492430871648</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131342</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745592</v>
+        <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014704</v>
+        <v>231.5645562859964</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055954</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250107</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552506</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101265</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124297</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084605</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110501</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>228.1588793659822</v>
       </c>
       <c r="M6" t="n">
-        <v>603.5008461715807</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>190.7515266748955</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>429.3987061034034</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35272,7 +35272,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>290.0605676494653</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>167.3462379728904</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7540807028593007</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>130.3364854949992</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37481,10 +37481,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>211.4890361370309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236315785</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>55.96455263125056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3363447.29709459</v>
+        <v>3365207.827397376</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9385639094162</v>
+        <v>348.7107556681968</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>55.10327839471261</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.018744405379</v>
+        <v>98.51394015369122</v>
       </c>
       <c r="I3" t="n">
         <v>45.84481919370735</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.11551727184605</v>
+        <v>21.62032152353349</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.6189682767592</v>
+        <v>175.303948826455</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>29.13124437794864</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>298.5599747503331</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>61.59020550332201</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>120.3790843377887</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.09281856196665</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>115.1947211504366</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>127.6065435523132</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.7286184012997</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1578,7 +1578,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>164.1303830823236</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>63.16281301712621</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>140.307475200959</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.52682476229707</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>108.9065924712584</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4321,31 +4321,31 @@
         <v>525.4704572205511</v>
       </c>
       <c r="G2" t="n">
-        <v>108.3607967059892</v>
+        <v>173.237370687019</v>
       </c>
       <c r="H2" t="n">
-        <v>108.3607967059892</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>165.3835665605759</v>
       </c>
       <c r="K2" t="n">
-        <v>151.950669111822</v>
+        <v>245.2190448415128</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181045</v>
+        <v>381.1637770428493</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639727</v>
+        <v>1009.116320964472</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680361</v>
+        <v>1632.597796005106</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291969</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
         <v>2602.377499016428</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
         <v>99.00881771507483</v>
@@ -4418,43 +4418,43 @@
         <v>882.1470455900082</v>
       </c>
       <c r="M3" t="n">
-        <v>1241.641187275395</v>
+        <v>1449.617702133886</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1645.290452790179</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2191.996692751183</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.727272665647</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213574</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.5567829601589</v>
+        <v>685.0568026069308</v>
       </c>
       <c r="C4" t="n">
-        <v>497.620600032252</v>
+        <v>516.1206196790239</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5039606199163</v>
+        <v>516.1206196790239</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>368.2075260966308</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3175785987204</v>
       </c>
       <c r="G4" t="n">
         <v>52.70091953961285</v>
@@ -4533,7 +4533,7 @@
         <v>1043.779963221469</v>
       </c>
       <c r="Y4" t="n">
-        <v>848.2052477903986</v>
+        <v>866.7052674371705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1203.962417599551</v>
+        <v>1134.523250435134</v>
       </c>
       <c r="C5" t="n">
-        <v>834.9999006591394</v>
+        <v>765.5607334947226</v>
       </c>
       <c r="D5" t="n">
-        <v>476.7342020523889</v>
+        <v>407.2950348879721</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7342020523889</v>
+        <v>407.2950348879721</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>400.3495341387687</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4570,19 +4570,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V5" t="n">
-        <v>2333.470244909599</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W5" t="n">
-        <v>1980.701589639485</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.701589639485</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.562257663673</v>
+        <v>1521.123090499256</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>346.1860297752922</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>986.7313792423969</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
         <v>1638.905258545106</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.7878360902098</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="C7" t="n">
-        <v>132.7878360902098</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="D7" t="n">
-        <v>132.7878360902098</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="E7" t="n">
-        <v>132.7878360902098</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="F7" t="n">
-        <v>132.7878360902098</v>
+        <v>239.1823523035921</v>
       </c>
       <c r="G7" t="n">
-        <v>132.7878360902098</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>132.7878360902098</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
         <v>70.57550729897547</v>
@@ -4767,10 +4767,10 @@
         <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>535.2288800639797</v>
+        <v>641.623396277362</v>
       </c>
       <c r="Y7" t="n">
-        <v>314.4363009204495</v>
+        <v>420.8308171338318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430.9594966187353</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="C8" t="n">
-        <v>430.9594966187353</v>
+        <v>584.0795566751565</v>
       </c>
       <c r="D8" t="n">
-        <v>72.69379801198481</v>
+        <v>225.813858068406</v>
       </c>
       <c r="E8" t="n">
-        <v>72.69379801198481</v>
+        <v>225.813858068406</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>218.8683573192025</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>205.820979596034</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2518.687672788282</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.995969533433</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V8" t="n">
-        <v>1933.933082189863</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W8" t="n">
-        <v>1581.164426919749</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X8" t="n">
-        <v>1207.698668658669</v>
+        <v>953.0420736155681</v>
       </c>
       <c r="Y8" t="n">
-        <v>817.5593366828571</v>
+        <v>953.0420736155681</v>
       </c>
     </row>
     <row r="9">
@@ -5020,25 +5020,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459586</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180517</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>605.645163642942</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>458.7552161450316</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817746</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761984</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,43 +5506,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>154.6822255254121</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2281.17481784054</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,19 +6232,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429802</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5477693179085</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7314,16 +7314,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048574</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7785,25 +7785,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>94.21048053504113</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,10 +7993,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188186</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.7513690535338</v>
+        <v>394.8286567893829</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>214.4812518545905</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>89.54312379457414</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>176.8008973295436</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0089294658992</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>25.79551989096913</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.89590291932097</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>104.0840080815016</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>26.93934589766886</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>98.08864825591527</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37.52737017531081</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692174.0493866286</v>
+        <v>692174.0493866287</v>
       </c>
     </row>
     <row r="10">
@@ -26316,46 +26316,46 @@
         <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210054</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26426,31 +26426,31 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707324</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707304</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707401</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707425</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
@@ -26459,7 +26459,7 @@
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707401</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-325910.5563754558</v>
       </c>
       <c r="C6" t="n">
-        <v>457521.4556102611</v>
+        <v>457521.4556102609</v>
       </c>
       <c r="D6" t="n">
-        <v>462427.7026187611</v>
+        <v>462427.7026187608</v>
       </c>
       <c r="E6" t="n">
-        <v>-157623.7411305508</v>
+        <v>-157311.0998016293</v>
       </c>
       <c r="F6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.2474749552</v>
       </c>
       <c r="G6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="H6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.247474955</v>
       </c>
       <c r="I6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="J6" t="n">
-        <v>445703.6137457534</v>
+        <v>446016.2550746743</v>
       </c>
       <c r="K6" t="n">
-        <v>618064.6061460342</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="L6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.2474749553</v>
       </c>
       <c r="M6" t="n">
-        <v>489987.0093303202</v>
+        <v>490299.6506592416</v>
       </c>
       <c r="N6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.2474749554</v>
       </c>
       <c r="O6" t="n">
-        <v>618064.6061460339</v>
+        <v>618377.2474749555</v>
       </c>
       <c r="P6" t="n">
-        <v>618064.606146034</v>
+        <v>618377.247474955</v>
       </c>
     </row>
   </sheetData>
@@ -26801,10 +26801,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26971,16 +26971,16 @@
         <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>-2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.22780824121946</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>64.22780824121946</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.50480425168773</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.504804251687439</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.96568507533561</v>
+        <v>43.28070452563978</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>383.7856595679881</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>29.19228371980176</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>61.67635237609497</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>105.3305710512485</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>281.9480655132489</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.45714196452936</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.81487632578269e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.281837992243618e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32086,31 +32086,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860829</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>113.8208555767304</v>
       </c>
       <c r="K2" t="n">
         <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>137.3179113144814</v>
       </c>
       <c r="M2" t="n">
         <v>634.29549891073</v>
@@ -34713,10 +34713,10 @@
         <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076844</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
         <v>32.99846259011593</v>
@@ -34786,7 +34786,7 @@
         <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>363.1253956418052</v>
+        <v>573.2026833776544</v>
       </c>
       <c r="N3" t="n">
         <v>197.6492430871648</v>
@@ -34798,7 +34798,7 @@
         <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>410.7784365939666</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35020,13 +35020,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>228.1588793659822</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>377.4642727362756</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1903400640646</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
